--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -1433,6 +1433,24 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
+      <c r="T17" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3">

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -1714,6 +1714,24 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
+      <c r="T22" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3">
@@ -1981,6 +1999,24 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
+      <c r="T27" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3">
@@ -2244,6 +2280,24 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
+      <c r="T32" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3">
@@ -2507,6 +2561,24 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
+      <c r="T37" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3">
@@ -2774,6 +2846,24 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
+      <c r="T42" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3">
@@ -3037,6 +3127,24 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
+      <c r="T47" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="3">
@@ -3300,6 +3408,24 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
+      <c r="T52" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="X52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="3">
@@ -3563,6 +3689,24 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
+      <c r="T57" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="U57" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="V57" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X57" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="3">
@@ -3826,6 +3970,24 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
+      <c r="T62" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="X62" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="3">
@@ -4089,6 +4251,24 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
+      <c r="T67" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="X67" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="3">
@@ -4356,6 +4536,24 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
+      <c r="T72" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="V72" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X72" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="3">
@@ -4619,6 +4817,24 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
+      <c r="T77" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="U77" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="V77" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="W77" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="X77" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="3">
@@ -4886,6 +5102,24 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
+      <c r="T82" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="U82" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="V82" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="W82" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="X82" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="3">
@@ -5153,6 +5387,24 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
+      <c r="T87" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="U87" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="V87" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="W87" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X87" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="3">
@@ -5416,6 +5668,24 @@
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
+      <c r="T92" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="U92" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="V92" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="W92" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="X92" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="3">
@@ -5679,6 +5949,24 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
+      <c r="T97" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="U97" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="V97" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="W97" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="X97" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="3">
@@ -5936,6 +6224,24 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
+      <c r="T102" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="U102" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="V102" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="W102" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="X102" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Y102" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="3">
@@ -6193,6 +6499,24 @@
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
+      <c r="T107" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="U107" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="V107" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="W107" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X107" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="3">
@@ -6454,6 +6778,24 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
+      <c r="T112" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="U112" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="V112" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W112" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="X112" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y112" s="1">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="3">
@@ -6715,6 +7057,24 @@
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
+      <c r="T117" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="U117" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="V117" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="W117" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="X117" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Y117" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="3">
@@ -6972,6 +7332,24 @@
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
+      <c r="T122" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="U122" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="V122" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="W122" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="X122" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y122" s="1">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="3">
@@ -7233,6 +7611,24 @@
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
+      <c r="T127" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="U127" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="V127" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="W127" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="X127" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Y127" s="1">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="3">
@@ -7496,6 +7892,24 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
+      <c r="T132" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="U132" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="V132" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="W132" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="X132" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Y132" s="1">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="3">
@@ -7759,6 +8173,24 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
+      <c r="T137" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="U137" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="V137" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="W137" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="X137" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Y137" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="3">
@@ -8022,6 +8454,24 @@
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
+      <c r="T142" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="U142" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="V142" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="W142" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="X142" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Y142" s="1">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="3">
@@ -8287,6 +8737,24 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
+      <c r="T147" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="U147" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="V147" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="W147" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="X147" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Y147" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="3">
@@ -8550,6 +9018,24 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
+      <c r="T152" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="U152" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="V152" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="W152" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="X152" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="Y152" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="3">
@@ -8813,6 +9299,24 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
+      <c r="T157" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="U157" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="V157" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="W157" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="X157" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y157" s="1">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="3">
@@ -9084,6 +9588,24 @@
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
+      <c r="T162" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="U162" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="V162" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="W162" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="X162" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="3">
@@ -9347,6 +9869,24 @@
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
+      <c r="T167" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="U167" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="V167" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="W167" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="X167" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="Y167" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="3">
@@ -9616,6 +10156,24 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
+      <c r="T172" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="U172" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="V172" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="W172" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="X172" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="Y172" s="1">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="3">
@@ -9879,6 +10437,24 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
+      <c r="T177" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="U177" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="V177" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W177" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="X177" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y177" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="3">
@@ -10142,6 +10718,24 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
+      <c r="T182" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="U182" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="V182" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="W182" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="X182" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="Y182" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="3">
@@ -10405,6 +10999,24 @@
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
+      <c r="T187" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U187" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="V187" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W187" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="X187" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="Y187" s="1">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="3">
@@ -10668,6 +11280,24 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
+      <c r="T192" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="U192" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="V192" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W192" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="X192" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Y192" s="1">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="3">
@@ -10931,6 +11561,24 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
+      <c r="T197" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="U197" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="V197" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="W197" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="X197" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="Y197" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="3">
@@ -11194,6 +11842,24 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
+      <c r="T202" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="U202" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="V202" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="W202" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="X202" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y202" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="3">
@@ -11457,6 +12123,24 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
+      <c r="T207" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="U207" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="V207" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="W207" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X207" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="Y207" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="3">
@@ -11720,6 +12404,24 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
+      <c r="T212" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="U212" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="V212" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="W212" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="X212" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="Y212" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="3">
@@ -11983,6 +12685,24 @@
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
+      <c r="T217" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="U217" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="V217" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="W217" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="X217" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="Y217" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="3">
@@ -12244,6 +12964,24 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
+      <c r="T222" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="U222" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="V222" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="W222" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="X222" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Y222" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="3">
@@ -12501,6 +13239,24 @@
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
+      <c r="T227" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="U227" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="V227" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="W227" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="X227" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="Y227" s="1">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="3">
@@ -12764,6 +13520,24 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
+      <c r="T232" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="U232" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="V232" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="W232" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="X232" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Y232" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="3">
